--- a/Base.xlsx
+++ b/Base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dantas\Desktop\GeradorRelatorioDiario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dantas\Documents\GitHub\GeradorRelatorioDiario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EE015-0C89-4F88-BB33-DE4B5E6522FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1360BF5-51F0-4932-9FED-76147E51770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{93ADC73B-3178-4E72-8EAC-CE431C5A1018}"/>
+    <workbookView xWindow="20925" yWindow="4350" windowWidth="20175" windowHeight="15345" xr2:uid="{93ADC73B-3178-4E72-8EAC-CE431C5A1018}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Gerador de relatório diário V: 0.1</t>
   </si>
@@ -52,13 +51,40 @@
     <t>SOMA TOTAL DE TEMPO:</t>
   </si>
   <si>
-    <t>Desejado 360</t>
-  </si>
-  <si>
-    <t>Máximo 480</t>
-  </si>
-  <si>
     <t>Versão 1.0 - Dantas</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Call com a Mari</t>
+  </si>
+  <si>
+    <t>Verificar o grid gerado</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Reunião</t>
+  </si>
+  <si>
+    <t>Lanche</t>
+  </si>
+  <si>
+    <t>Reuniao para passar os acontecimentos do dia anterior</t>
+  </si>
+  <si>
+    <t>Reuniao para conversar sobre as dores do dia e água</t>
+  </si>
+  <si>
+    <t>Pão com presunto</t>
+  </si>
+  <si>
+    <t>Máximo 8:00</t>
+  </si>
+  <si>
+    <t>Desejado 6:00</t>
   </si>
 </sst>
 </file>
@@ -66,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +131,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -293,29 +327,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="167" formatCode="h:mm;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -327,11 +359,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -441,8 +476,8 @@
   <autoFilter ref="A2:C30" xr:uid="{0622B2EE-8D1B-44A1-A279-0E841082513B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{69139CA3-47BD-431A-9B03-9A7FB900E8FA}" name="Item" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,7 +783,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,12 +794,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -779,165 +814,191 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13">
         <v>6.25E-2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <f>SUM(B3:B30)</f>
-        <v>6.25E-2</v>
+        <v>0.21041666666666667</v>
       </c>
       <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dantas\Documents\GitHub\GeradorRelatorioDiario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1360BF5-51F0-4932-9FED-76147E51770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B0FB0-D292-4CD5-BD65-1C5A92174F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20925" yWindow="4350" windowWidth="20175" windowHeight="15345" xr2:uid="{93ADC73B-3178-4E72-8EAC-CE431C5A1018}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -327,23 +327,40 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -354,16 +371,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -373,24 +385,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -476,8 +470,8 @@
   <autoFilter ref="A2:C30" xr:uid="{0622B2EE-8D1B-44A1-A279-0E841082513B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{69139CA3-47BD-431A-9B03-9A7FB900E8FA}" name="Item" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -783,7 +777,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,10 +788,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
@@ -817,7 +811,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="16">
         <v>6.25E-2</v>
       </c>
       <c r="C3" s="2"/>
@@ -826,7 +820,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="16">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -837,7 +831,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="16">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -848,7 +842,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="16">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -859,7 +853,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="16">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -868,124 +862,124 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="18">
         <f>SUM(B3:B30)</f>
         <v>0.21041666666666667</v>
       </c>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dantas\Documents\GitHub\GeradorRelatorioDiario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B0FB0-D292-4CD5-BD65-1C5A92174F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F52B635-2EB1-4BC0-8B08-E48B56FE915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20925" yWindow="4350" windowWidth="20175" windowHeight="15345" xr2:uid="{93ADC73B-3178-4E72-8EAC-CE431C5A1018}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -328,29 +328,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -360,11 +358,14 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -470,8 +471,8 @@
   <autoFilter ref="A2:C30" xr:uid="{0622B2EE-8D1B-44A1-A279-0E841082513B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{69139CA3-47BD-431A-9B03-9A7FB900E8FA}" name="Item" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{34AF4E66-B00D-4835-B34C-D784D005E42F}" name="Tempo" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F5B5079E-8048-4F78-AD17-6CFB4368FB30}" name="Descrição" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -777,7 +778,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,10 +789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
@@ -811,7 +812,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="C3" s="2"/>
@@ -820,7 +821,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -831,7 +832,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -842,7 +843,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -853,7 +854,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -862,124 +863,124 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <f>SUM(B3:B30)</f>
         <v>0.21041666666666667</v>
       </c>
